--- a/processed_data/data_gazepath/data_koku-hamburg_6-9mos.xlsx
+++ b/processed_data/data_gazepath/data_koku-hamburg_6-9mos.xlsx
@@ -446,11 +446,6 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -474,11 +469,6 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,11 +492,6 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
@@ -579,11 +564,6 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
@@ -742,11 +722,6 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
@@ -782,11 +757,6 @@
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -810,11 +780,6 @@
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -838,11 +803,6 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H13">
         <v>0</v>
       </c>
@@ -878,11 +838,6 @@
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H14">
         <v>0</v>
       </c>
@@ -918,11 +873,6 @@
       <c r="E15">
         <v>3</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H15">
         <v>0</v>
       </c>
@@ -958,11 +908,6 @@
       <c r="E16">
         <v>4</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H16">
         <v>0</v>
       </c>
@@ -998,11 +943,6 @@
       <c r="E17">
         <v>5</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H17">
         <v>0</v>
       </c>
@@ -1038,11 +978,6 @@
       <c r="E18">
         <v>6</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H18">
         <v>0</v>
       </c>
@@ -1078,11 +1013,6 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H19">
         <v>0</v>
       </c>
@@ -1118,11 +1048,6 @@
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1146,11 +1071,6 @@
       <c r="E21">
         <v>3</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H21">
         <v>0</v>
       </c>
@@ -1186,11 +1106,6 @@
       <c r="E22">
         <v>4</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1214,11 +1129,6 @@
       <c r="E23">
         <v>5</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H23">
         <v>0</v>
       </c>
@@ -1254,11 +1164,6 @@
       <c r="E24">
         <v>6</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1282,11 +1187,6 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1310,11 +1210,6 @@
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1338,11 +1233,6 @@
       <c r="E27">
         <v>3</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1366,11 +1256,6 @@
       <c r="E28">
         <v>4</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1394,11 +1279,6 @@
       <c r="E29">
         <v>5</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1422,11 +1302,6 @@
       <c r="E30">
         <v>6</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1450,11 +1325,6 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H31">
         <v>0</v>
       </c>
@@ -1490,11 +1360,6 @@
       <c r="E32">
         <v>2</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1518,11 +1383,6 @@
       <c r="E33">
         <v>3</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H33">
         <v>0</v>
       </c>
@@ -1558,11 +1418,6 @@
       <c r="E34">
         <v>4</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1586,11 +1441,6 @@
       <c r="E35">
         <v>5</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1614,11 +1464,6 @@
       <c r="E36">
         <v>6</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1771,16 +1616,8 @@
       <c r="E40">
         <v>4</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G40">
-        <v>8509.333333333334</v>
-      </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -1900,22 +1737,14 @@
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G43">
-        <v>5376</v>
-      </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>364.666666666667</v>
+        <v>107.3333333333339</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -1986,11 +1815,6 @@
       <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H45">
         <v>0</v>
       </c>
@@ -2026,11 +1850,6 @@
       <c r="E46">
         <v>4</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H46">
         <v>0</v>
       </c>
@@ -2109,11 +1928,6 @@
       <c r="E48">
         <v>6</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H48">
         <v>0</v>
       </c>
@@ -2192,25 +2006,17 @@
       <c r="E50">
         <v>2</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G50">
-        <v>8559.333333333334</v>
-      </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>799</v>
+        <v>557.3333333333339</v>
       </c>
     </row>
     <row r="51">
@@ -2364,11 +2170,6 @@
       <c r="E54">
         <v>6</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H54">
         <v>0</v>
       </c>
@@ -2404,22 +2205,14 @@
       <c r="E55">
         <v>1</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G55">
-        <v>7084.333333333334</v>
-      </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>663.6666666666679</v>
+        <v>514.6666666666679</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -2447,11 +2240,6 @@
       <c r="E56">
         <v>2</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H56">
         <v>0</v>
       </c>
@@ -2659,11 +2447,6 @@
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H61">
         <v>0</v>
       </c>
@@ -2699,11 +2482,6 @@
       <c r="E62">
         <v>2</v>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H62">
         <v>0</v>
       </c>
@@ -2739,11 +2517,6 @@
       <c r="E63">
         <v>3</v>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H63">
         <v>0</v>
       </c>
@@ -2779,11 +2552,6 @@
       <c r="E64">
         <v>4</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H64">
         <v>0</v>
       </c>
@@ -3034,11 +2802,6 @@
       <c r="E70">
         <v>4</v>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H70">
         <v>0</v>
       </c>
@@ -3074,11 +2837,6 @@
       <c r="E71">
         <v>5</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H71">
         <v>0</v>
       </c>
@@ -3157,11 +2915,6 @@
       <c r="E73">
         <v>1</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H73">
         <v>0</v>
       </c>
@@ -3197,11 +2950,6 @@
       <c r="E74">
         <v>2</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H74">
         <v>0</v>
       </c>
@@ -3237,25 +2985,17 @@
       <c r="E75">
         <v>3</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G75">
-        <v>8259.333333333334</v>
-      </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>132.3333333333339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3280,11 +3020,6 @@
       <c r="E76">
         <v>4</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H76">
         <v>0</v>
       </c>
@@ -3320,11 +3055,6 @@
       <c r="E77">
         <v>5</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="H77">
         <v>0</v>
       </c>
@@ -3359,11 +3089,6 @@
       </c>
       <c r="E78">
         <v>6</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
       </c>
     </row>
   </sheetData>
